--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/singapore_two.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/singapore_two.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
   </si>
   <si>
     <t>arg168828</t>
@@ -45,13 +45,13 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
   </si>
   <si>
     <t>arg580842</t>
   </si>
   <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
   </si>
   <si>
     <t>arg167721</t>
@@ -60,7 +60,7 @@
     <t>arg168833</t>
   </si>
   <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>was fi</t>
@@ -81,31 +81,31 @@
     <t>arg168826</t>
   </si>
   <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
   </si>
   <si>
     <t>arg168769</t>
   </si>
   <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
   </si>
   <si>
     <t>arg168795</t>
   </si>
   <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
   </si>
   <si>
     <t>arg168798</t>
   </si>
   <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
   </si>
   <si>
     <t>arg168824</t>
   </si>
   <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
   </si>
   <si>
     <t>d. ano</t>
@@ -123,7 +123,7 @@
     <t>arg168796</t>
   </si>
   <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
   </si>
   <si>
     <t>arg168772</t>
@@ -132,13 +132,13 @@
     <t>arg168803</t>
   </si>
   <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>arg168765</t>
   </si>
   <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
   </si>
   <si>
     <t>arg168815</t>
@@ -147,19 +147,19 @@
     <t>arg551859</t>
   </si>
   <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>arg168814</t>
   </si>
   <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
   </si>
   <si>
     <t>arg168794</t>
@@ -168,22 +168,22 @@
     <t>arg168785</t>
   </si>
   <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>arg168800</t>
   </si>
   <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>arg168771</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
   </si>
   <si>
     <t>arg168775</t>
@@ -192,49 +192,49 @@
     <t>arg168788</t>
   </si>
   <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>arg168790</t>
   </si>
   <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
   </si>
   <si>
     <t>arg168821</t>
   </si>
   <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
   </si>
   <si>
     <t>arg168809</t>
   </si>
   <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>is neg</t>
@@ -249,19 +249,19 @@
     <t>gapore? He has a life!</t>
   </si>
   <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>arg168810</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
   </si>
   <si>
     <t>have s</t>
@@ -276,58 +276,58 @@
     <t>y people in those times because the living there was conditions were bad. another reason he has helped on the development</t>
   </si>
   <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
   </si>
   <si>
     <t>arg580839</t>
   </si>
   <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>ely th</t>
@@ -342,40 +342,40 @@
     <t>e would have remained a sparsely inhabited island, on the margins of the Dutch colonial empire in the East Indies.</t>
   </si>
   <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
   </si>
   <si>
     <t>arg168816</t>
   </si>
   <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>arg168836</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
   </si>
   <si>
     <t>d of t</t>
@@ -390,19 +390,19 @@
     <t>or? And besides, Raffles left Singapore under the orders of his superiors and he did not leave of free will</t>
   </si>
   <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
   </si>
   <si>
     <t>on.</t>
   </si>
   <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
   </si>
   <si>
     <t>hed it</t>
@@ -417,16 +417,16 @@
     <t>l level...although it may have been farquhar who suggest this to raffles</t>
   </si>
   <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
   </si>
   <si>
     <t>d have</t>
@@ -444,13 +444,13 @@
     <t>arg168789</t>
   </si>
   <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>issapp</t>
@@ -462,16 +462,16 @@
     <t>ed.</t>
   </si>
   <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>a T</t>
@@ -483,34 +483,34 @@
     <t>n Committee was formed by Raffles to oversee the project.</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>arg168778</t>
   </si>
   <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
   </si>
   <si>
     <t>ckfigh</t>
@@ -525,22 +525,22 @@
     <t>rders everywhere in Singapore. Singapore was so poorly developed that Raffles was unhappy.</t>
   </si>
   <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
   </si>
   <si>
     <t>tor? A</t>
@@ -555,16 +555,16 @@
     <t>Raffles left Singapore under the orders of his superiors and he did not leave of free will</t>
   </si>
   <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>p you.</t>
   </si>
   <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
   </si>
   <si>
     <t>he sh</t>
@@ -579,7 +579,7 @@
     <t>sidered a founder.</t>
   </si>
   <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>would</t>
@@ -591,43 +591,43 @@
     <t>you.</t>
   </si>
   <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>are y</t>
@@ -642,13 +642,13 @@
     <t>o imply that because now they are back taking care OF THEIR OWN SCHOOLS. Another good example would be if Lee Hsien Lioeng took a day off for family time would you say he is not our prime minister anymore? Would you say he is neglecting singapore? He has a life!</t>
   </si>
   <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
   </si>
   <si>
     <t>or the</t>
@@ -663,40 +663,40 @@
     <t>ests of Singapore's population at heart</t>
   </si>
   <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>Then i</t>
@@ -711,10 +711,10 @@
     <t>to ask u a question why then does the names "raffles institution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>&gt; Farq</t>
@@ -729,19 +729,19 @@
     <t>boss!(raffles) he has to follow raffles and not go about doing anything else if then why cant farquhar help singapore after he was fired? I say again you do need to be in a certain position to be a founder as time, money, effort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>be a</t>
@@ -756,49 +756,49 @@
     <t>time, money, effort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
   </si>
   <si>
     <t>r! We</t>
@@ -813,55 +813,55 @@
     <t>s the "founder" of health reform WHY because he was in such a high position and he could do something like invest money time and effort in such a project.</t>
   </si>
   <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
   </si>
   <si>
     <t>, inst</t>
@@ -876,10 +876,10 @@
     <t>contractor? And besides, Raffles left Singapore under the orders of his superiors and he did not leave of free will</t>
   </si>
   <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>there</t>
@@ -894,40 +894,40 @@
     <t>given credit. Then i would like to ask u a question why then does the names "raffles institution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>ttee w</t>
@@ -942,31 +942,31 @@
     <t>y Raffles to oversee the project.</t>
   </si>
   <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>else</t>
@@ -981,22 +981,22 @@
     <t>cant farquhar help singapore after he was fired? I say again you do need to be in a certain position to be a founder as time, money, effort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>ested.</t>
@@ -1011,19 +1011,19 @@
     <t>now people who would help you.</t>
   </si>
   <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>re he</t>
@@ -1038,19 +1038,19 @@
     <t>redit. Then i would like to ask u a question why then does the names "raffles institution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
   </si>
   <si>
     <t>nsider</t>
@@ -1065,13 +1065,13 @@
     <t>r.</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>ould y</t>
@@ -1086,16 +1086,16 @@
     <t>s neglecting singapore? He has a life!</t>
   </si>
   <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
   </si>
   <si>
     <t>ugh it</t>
@@ -1110,13 +1110,13 @@
     <t>een farquhar who suggest this to raffles</t>
   </si>
   <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
   </si>
   <si>
     <t>gapore</t>
@@ -1131,7 +1131,7 @@
     <t>was so poorly developed that Raffles was unhappy.</t>
   </si>
   <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
   </si>
   <si>
     <t>urders</t>
@@ -1146,31 +1146,31 @@
     <t>in Singapore. Singapore was so poorly developed that Raffles was unhappy.</t>
   </si>
   <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>s time</t>
@@ -1185,22 +1185,22 @@
     <t>fort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
   </si>
   <si>
     <t>Febru</t>
@@ -1215,49 +1215,49 @@
     <t>use the southern part of Singapore as a British trading post and settlement.</t>
   </si>
   <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
   </si>
   <si>
     <t>o gave</t>
@@ -1272,13 +1272,13 @@
     <t>sition because he had to leave and return to Bencoolen, also, he was the one who laid out the foundation of Singapore's Development, so he should be considered a founder.</t>
   </si>
   <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
   </si>
   <si>
     <t>s of a</t>
@@ -1293,10 +1293,10 @@
     <t>d he was in good position to do so. He invested a lot and we therefore credit him as our founder! We say Obama is the "founder" of health reform WHY because he was in such a high position and he could do something like invest money time and effort in such a project.</t>
   </si>
   <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
   </si>
   <si>
     <t>d effo</t>
@@ -1311,7 +1311,7 @@
     <t>a project.</t>
   </si>
   <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0</t>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41</t>
   </si>
   <si>
     <t>re sup</t>
@@ -1323,7 +1323,7 @@
     <t>British. If William Farquhar was to be proclaimed the founder because he did the "grunt work", shouldn't the supervisor of a construction site get the most commission, instead of the contractor? And besides, Raffles left Singapore under the orders of his superiors and he did not leave of free will</t>
   </si>
   <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>e to a</t>
@@ -1338,13 +1338,13 @@
     <t>tion why then does the names "raffles institution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>ffort</t>
@@ -1359,10 +1359,10 @@
     <t>sted. You must know people who would help you.</t>
   </si>
   <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>affles</t>
@@ -1377,16 +1377,16 @@
     <t>n" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>les an</t>
@@ -1401,7 +1401,7 @@
     <t>ad all authority over Singapore therefore he was given credit. Then i would like to ask u a question why then does the names "raffles institution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>linics</t>
@@ -1410,37 +1410,37 @@
     <t>"</t>
   </si>
   <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>names</t>
@@ -1455,40 +1455,40 @@
     <t>stitution" "raffles hospital" raffles medical clinics"</t>
   </si>
   <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
   </si>
   <si>
     <t>ach ot</t>
@@ -1503,7 +1503,7 @@
     <t>ng Singapore's economy. &lt;br/&gt; Raffles was responsible for Singapore's boost of economy</t>
   </si>
   <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
   </si>
   <si>
     <t>e one</t>
@@ -1518,10 +1518,10 @@
     <t>t the foundation of Singapore's Development, so he should be considered a founder.</t>
   </si>
   <si>
-    <t>139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>cause</t>
@@ -1536,10 +1536,10 @@
     <t>e back taking care OF THEIR OWN SCHOOLS. Another good example would be if Lee Hsien Lioeng took a day off for family time would you say he is not our prime minister anymore? Would you say he is neglecting singapore? He has a life!</t>
   </si>
   <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
   </si>
   <si>
     <t>t was</t>
@@ -1554,7 +1554,7 @@
     <t>e for Raffles to leave his subordinate to finish his ideas</t>
   </si>
   <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>mained</t>
@@ -1569,64 +1569,64 @@
     <t>inhabited island, on the margins of the Dutch colonial empire in the East Indies.</t>
   </si>
   <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
   </si>
   <si>
     <t>eas</t>
   </si>
   <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>to</t>
@@ -1638,7 +1638,7 @@
     <t>ssappointed.</t>
   </si>
   <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>r, boo</t>
@@ -1653,10 +1653,10 @@
     <t>pore's economy.</t>
   </si>
   <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
   </si>
   <si>
     <t>re's p</t>
@@ -1671,7 +1671,7 @@
     <t>t heart</t>
   </si>
   <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53</t>
   </si>
   <si>
     <t>al lev</t>
@@ -1686,25 +1686,25 @@
     <t>gh it may have been farquhar who suggest this to raffles</t>
   </si>
   <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>ngapor</t>
@@ -1719,91 +1719,91 @@
     <t>life!</t>
   </si>
   <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>time,</t>
@@ -1818,7 +1818,7 @@
     <t>ort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
+    <t>16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
   </si>
   <si>
     <t>and Ra</t>
@@ -1833,13 +1833,13 @@
     <t>d him for the best interests of Singapore's population at heart</t>
   </si>
   <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>nomic</t>
@@ -1854,37 +1854,37 @@
     <t>ic objectives in the region. Without Raffles, it is likely that Singapore would have remained a sparsely inhabited island, on the margins of the Dutch colonial empire in the East Indies.</t>
   </si>
   <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74</t>
+  </si>
+  <si>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
   </si>
   <si>
     <t>ing th</t>
@@ -1899,13 +1899,13 @@
     <t>ditions were bad. another reason he has helped on the development</t>
   </si>
   <si>
-    <t>113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25,144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>539,1.0,17.89,0.0,0.03,0.67,0.0,0.0,0.97,0.25,0.4,0.45,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
+    <t>8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86,10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>29.67,6.06,1.86,1.46,1.28,1.0,17.89,0.0,0.03,0.67,0,0,0.0,0.0,0.97,0.22,0.04,0.2,0.03,0.03,0.04,0.07,0.38,0.0,0.0,4.41,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
   </si>
   <si>
     <t>gic ob</t>
@@ -1920,85 +1920,85 @@
     <t>the region. Without Raffles, it is likely that Singapore would have remained a sparsely inhabited island, on the margins of the Dutch colonial empire in the East Indies.</t>
   </si>
   <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,18.34,0.0,0.04,1.0,0.0,0.04,0.49,0.05,0.1,0.1,0.04,0.0,558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>330,0.0,18.58,0.0,0.09,1.0,0.0,0.0,0.49,0.2,0.2,0.25,0.04,0.25,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>296,1.0,15.66,0.0,0.04,3.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25,139,0.0,19.17,0.0,0.14,1.0,0.0,0.0,0.73,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0,255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0</t>
-  </si>
-  <si>
-    <t>170,0.0,13.59,0.0,0.03,1.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0,193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0,298,0.5,15.81,0.0,0.02,0.5,0.0,0.0,0.73,0.05,0.2,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,24.36,0.0,0.0,1.0,0.0,0.05,0.73,0.05,0.2,0.2,0.0,0.0,177,1.0,16.44,0.0,0.03,1.0,0.0,0.0,0.73,0.2,0.25,0.3,0.04,0.25</t>
-  </si>
-  <si>
-    <t>210,0.0,15.84,0.0,0.12,3.0,0.0,0.0,0.49,0.05,0.1,0.1,0.0,0.0,345,0.5,14.54,0.0,0.02,1.0,0.0,0.03,0.24,0.25,0.2,0.2,0.04,0.25</t>
-  </si>
-  <si>
-    <t>319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0,252,0.0,23.0,0.0,0.06,2.0,0.0,0.0,0.73,0.1,0.2,0.2,0.09,0.0</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,505,0.0,11.45,0.0,0.05,1.83,0.0,0.38,0.49,0.35,0.4,0.4,0.0,0.0</t>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.48,0.97,0.49,0.0,18.34,0.0,0.04,1.0,6,0,0.0,0.04,0.49,0.13,0.0,0.26,0.09,0.09,0.17,0.04,0.0,0.0,0.0,5.73,33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>17.67,6.23,1.11,1.46,0.76,0.0,18.58,0.0,0.09,1.0,0,0,0.0,0.0,0.49,0.23,0.08,0.19,0.11,0.11,0.04,0.0,0.0,0.25,0.25,4.74,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>53.0,5.58,1.11,0.49,2.28,1.0,15.66,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.23,0.02,0.23,0.04,0.04,0.06,0.06,0.13,0.0,0.0,5.53,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64,21.0,6.62,0.44,0.49,0.9,0.0,19.17,0.0,0.14,1.0,0,0,0.0,0.0,0.73,0.24,0.0,0.24,0.0,0.0,0.1,0.0,0.0,0.0,0.0,9.38</t>
+  </si>
+  <si>
+    <t>15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43,17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89,21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>15.5,5.48,0.65,0.97,0.67,0.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.49,0.23,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.83,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
+  </si>
+  <si>
+    <t>21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73,11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75,26.5,5.62,1.11,0.97,1.14,0.5,15.81,0.0,0.02,0.5,0,0,0.0,0.0,0.73,0.17,0.06,0.23,0.06,0.06,0.17,0.04,0.0,0.0,0.0,4.95</t>
+  </si>
+  <si>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>10.5,6.86,0.44,0.97,0.45,0.0,24.36,0.0,0.0,1.0,4,0,0.0,0.05,0.73,0.29,0.0,0.14,0.05,0.05,0.05,0.14,0.0,0.0,0.0,8.88,31.0,5.71,0.65,0.49,1.33,1.0,16.44,0.0,0.03,1.0,0,0,0.0,0.0,0.73,0.29,0.06,0.23,0.03,0.03,0.03,0.03,0.0,0.25,0.25,5.64</t>
+  </si>
+  <si>
+    <t>34.0,6.18,0.71,0.49,1.46,0.0,15.84,0.0,0.12,3.0,0,0,0.0,0.0,0.49,0.21,0.03,0.26,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.53,31.5,5.48,1.32,0.97,1.35,0.5,14.54,0.0,0.02,1.0,0,0,0.0,0.03,0.24,0.22,0.05,0.22,0.06,0.06,0.05,0.03,0.0,0.25,0.25,4.95</t>
+  </si>
+  <si>
+    <t>25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46,36.0,7.0,0.75,0.49,1.55,0.0,23.0,0.0,0.06,2.0,0,0,0.0,0.0,0.73,0.31,0.17,0.19,0.0,0.0,0.0,0.11,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,16.17,5.21,2.03,2.91,0.7,0.0,11.45,0.0,0.05,1.83,0,0,0.0,0.38,0.49,0.12,0.03,0.21,0.04,0.04,0.06,0.0,0.0,0.0,0.0,8.31</t>
   </si>
   <si>
     <t>FOUNDE</t>
@@ -2013,13 +2013,13 @@
     <t>Farquhar has a boss!(raffles) he has to follow raffles and not go about doing anything else if then why cant farquhar help singapore after he was fired? I say again you do need to be in a certain position to be a founder as time, money, effort is all invested. You must know people who would help you.</t>
   </si>
   <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,153,0.0,23.48,0.0,0.1,1.0,0.0,0.0,0.97,0.1,0.1,0.1,0.04,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,16.11,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.2,0.04,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,21.0,7.29,0.44,0.49,0.9,0.0,23.48,0.0,0.1,1.0,0,0,0.0,0.0,0.97,0.29,0.0,0.19,0.0,0.0,0.0,0.14,0.0,0.0,0.0,1.73</t>
+  </si>
+  <si>
+    <t>17.5,5.77,0.73,0.97,0.75,0.0,16.11,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.23,0.06,0.2,0.03,0.03,0.06,0.06,0.13,0.0,0.0,7.0,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
   </si>
   <si>
     <t>he w</t>
@@ -2031,25 +2031,25 @@
     <t>uch a high position and he could do something like invest money time and effort in such a project.</t>
   </si>
   <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,126,0.0,21.02,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,262,0.33,14.46,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.0,18.06,0.0,0.0,1.0,0.0,0.02,0.73,0.25,0.25,0.25,0.13,0.0,394,0.0,18.39,0.0,0.03,1.0,0.0,0.0,0.97,0.2,0.2,0.2,0.22,0.0</t>
-  </si>
-  <si>
-    <t>220,0.0,18.63,0.0,0.06,1.0,0.0,0.0,0.73,0.1,0.15,0.25,0.0,0.0,450,3.0,15.87,0.0,0.06,1.0,0.0,0.0,1.46,0.3,0.4,0.4,0.04,0.25</t>
-  </si>
-  <si>
-    <t>301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0,113,0.0,17.17,0.0,0.18,1.0,0.0,0.0,0.73,0.15,0.15,0.15,0.09,0.25</t>
-  </si>
-  <si>
-    <t>558,0.67,15.11,0.0,0.05,0.67,0.0,0.07,0.97,0.2,0.2,0.2,0.0,0.0,188,0.0,15.67,0.0,0.06,1.0,0.0,0.0,0.49,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0,319,1.0,20.06,0.0,0.06,0.5,0.0,0.0,0.73,0.05,0.15,0.15,0.04,0.0</t>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,19.0,6.63,0.4,0.49,0.82,0.0,21.02,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.32,0.05,0.21,0.0,0.0,0.0,0.11,0.0,0.0,0.0,9.75</t>
+  </si>
+  <si>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,15.67,5.57,0.98,1.46,0.67,0.33,14.46,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.15,0.0,0.3,0.02,0.02,0.02,0.0,0.0,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>17.0,6.14,1.07,1.46,0.73,0.0,18.06,0.0,0.0,1.0,4,0,0.0,0.02,0.73,0.33,0.12,0.12,0.0,0.0,0.0,0.04,0.0,0.0,0.0,4.6,32.5,6.06,1.36,0.97,1.4,0.0,18.39,0.0,0.03,1.0,0,0,0.0,0.0,0.97,0.23,0.11,0.12,0.03,0.03,0.05,0.03,0.0,0.0,0.0,3.89</t>
+  </si>
+  <si>
+    <t>17.5,6.29,0.73,0.97,0.75,0.0,18.63,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.11,0.11,0.2,0.03,0.03,0.06,0.0,0.0,0.0,0.0,5.29,40.0,5.63,1.67,0.97,1.72,3.0,15.87,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.2,0.0,0.23,0.04,0.04,0.09,0.04,0.13,0.25,0.25,4.88</t>
+  </si>
+  <si>
+    <t>14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31,8.5,6.65,0.36,0.97,0.37,0.0,17.17,0.0,0.18,1.0,0,0,0.0,0.0,0.73,0.35,0.0,0.18,0.06,0.06,0.06,0.06,0.0,0.25,0.25,9.86</t>
+  </si>
+  <si>
+    <t>33.33,5.58,2.09,1.46,1.43,0.67,15.11,0.0,0.05,0.67,0,0,0.0,0.07,0.97,0.24,0.05,0.24,0.09,0.09,0.05,0.01,0.0,0.0,0.0,3.23,34.0,5.53,0.71,0.49,1.46,0.0,15.67,0.0,0.06,1.0,0,0,0.0,0.0,0.49,0.26,0.03,0.15,0.03,0.03,0.06,0.0,0.0,0.0,0.0,1.93</t>
+  </si>
+  <si>
+    <t>25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83,25.0,6.38,1.04,0.97,1.07,1.0,20.06,0.0,0.06,0.5,0,0,0.0,0.0,0.73,0.18,0.04,0.24,0.08,0.08,0.06,0.04,0.13,0.0,0.0,5.46</t>
   </si>
   <si>
     <t>the p</t>
@@ -2058,7 +2058,7 @@
     <t>nd Raffles sacked him for the best interests of Singapore's population at heart</t>
   </si>
   <si>
-    <t>337,0.0,18.2,0.0,0.02,0.75,0.0,0.0,0.73,0.25,0.35,0.3,0.04,0.0,486,0.4,13.02,0.0,0.09,1.0,0.0,0.06,0.49,0.15,0.25,0.25,0.09,0.0</t>
+    <t>13.25,6.36,1.11,1.94,0.57,0.0,18.2,0.0,0.02,0.75,0,0,0.0,0.0,0.73,0.25,0.08,0.17,0.02,0.02,0.04,0.04,0.0,0.0,0.0,7.14,18.6,5.23,1.94,2.43,0.8,0.4,13.02,0.0,0.09,1.0,0,0,0.0,0.06,0.49,0.17,0.05,0.23,0.05,0.05,0.12,0.02,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>rime m</t>
@@ -2073,10 +2073,10 @@
     <t>more? Would you say he is neglecting singapore? He has a life!</t>
   </si>
   <si>
-    <t>255,0.5,17.65,0.0,0.02,1.0,0.0,0.0,0.73,0.35,0.4,0.35,0.04,0.0,285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25</t>
-  </si>
-  <si>
-    <t>285,0.0,16.04,0.0,0.04,1.0,0.0,0.04,0.97,0.2,0.25,0.25,0.04,0.25,522,0.5,12.78,0.0,0.02,1.0,0.0,0.01,0.24,0.35,0.35,0.35,0.0,0.0</t>
+    <t>21.0,6.07,0.88,0.97,0.9,0.5,17.65,0.0,0.02,1.0,0,0,0.0,0.0,0.73,0.26,0.07,0.17,0.02,0.02,0.02,0.02,0.0,0.0,0.0,7.73,25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5</t>
+  </si>
+  <si>
+    <t>25.0,5.7,1.04,0.97,1.07,0.0,16.04,0.0,0.04,1.0,10,0,0.0,0.04,0.97,0.26,0.08,0.08,0.0,0.0,0.02,0.02,0.0,0.25,0.25,4.5,25.5,5.12,2.13,1.94,1.1,0.5,12.78,0.0,0.02,1.0,0,0,0.0,0.01,0.24,0.22,0.1,0.17,0.01,0.01,0.12,0.0,0.0,0.0,0.0,5.83</t>
   </si>
   <si>
     <t>ething</t>
@@ -2091,7 +2091,7 @@
     <t>t money time and effort in such a project.</t>
   </si>
   <si>
-    <t>193,0.0,14.45,0.0,0.06,1.0,0.0,0.0,0.73,0.15,0.25,0.25,0.04,0.0,301,0.0,11.49,0.0,0.05,1.0,0.0,0.0,0.24,0.35,0.4,0.4,0.0,0.0</t>
+    <t>11.33,5.68,0.71,1.46,0.49,0.0,14.45,0.0,0.06,1.0,0,0,0.0,0.0,0.73,0.24,0.03,0.24,0.15,0.15,0.03,0.03,0.13,0.0,0.0,8.64,14.5,5.19,1.21,1.94,0.62,0.0,11.49,0.0,0.05,1.0,0,0,0.0,0.0,0.24,0.16,0.05,0.26,0.07,0.07,0.09,0.0,0.0,0.0,0.0,8.31</t>
   </si>
 </sst>
 </file>
